--- a/biology/Mycologie/Gomphales/Gomphales.xlsx
+++ b/biology/Mycologie/Gomphales/Gomphales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gomphales sont un ordre de champignons de la sous-classe des Phallomycetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gomphales sont un ordre de champignons de la sous-classe des Phallomycetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (15 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (15 janvier 2023) :
 Beenakiaceae Jülich, 1982
 Gomphaceae Donk, 1961
 Lentariaceae Jülich, 1982
@@ -545,11 +559,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'ordre des Gomphales a été créé en 1982 par le mycologue allemand Walter Jülich (d) (1942-)[2],[1].
-Publication originale
-(en) W. Jülich, « Higher taxa of Basidiomycetes », Bibliotheca Mycologica, vol. 85,‎ 1982, p. 1-485 (ISSN 0067-8066)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Gomphales a été créé en 1982 par le mycologue allemand Walter Jülich (d) (1942-),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gomphales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gomphales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) W. Jülich, « Higher taxa of Basidiomycetes », Bibliotheca Mycologica, vol. 85,‎ 1982, p. 1-485 (ISSN 0067-8066)</t>
         </is>
       </c>
     </row>
